--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>396966.9517589746</v>
+        <v>390530.4271833874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11001614.45455472</v>
+        <v>11001024.4751643</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200.0888737791977</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>314.907891405977</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>99.39898830681658</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615282</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>141.1952879668183</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>207.6985751920914</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.43239551508194</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>56.04553709189614</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>44.99205216109694</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.3523815274322</v>
+        <v>55.23459989922861</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>152.3773842551824</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>348.7008732250931</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.0068651509154</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>210.0640255947628</v>
+        <v>260.9887093720714</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.15094715580791</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>22.72004143577856</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295.3203987223623</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>18.12732193073077</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>59.9192519594342</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.781443466683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386994</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059176</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2953,7 +2953,7 @@
         <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219354</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
         <v>60.01194954507305</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059265</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778.4788770627339</v>
+        <v>1073.670414252699</v>
       </c>
       <c r="C2" t="n">
-        <v>778.4788770627339</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4788770627339</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>778.4788770627339</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>361.5844385927116</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>114.5970879866883</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032205</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.74991746528</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.037326457871</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="V2" t="n">
-        <v>1538.93051716139</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="W2" t="n">
-        <v>1167.931482129677</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="X2" t="n">
-        <v>778.4788770627339</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="Y2" t="n">
-        <v>778.4788770627339</v>
+        <v>1474.165159964096</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>691.1234630814481</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>540.4692326415403</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>440.0662141498064</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777377</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475502</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686802</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1874.261482913895</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1664.198339592537</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1441.658337963604</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1211.54109209689</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>1022.234014446902</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>842.9197975224095</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475502</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475502</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475502</v>
+        <v>1653.006732355228</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>1497.44792021443</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>1497.44792021443</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>1329.193866313876</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.261348449499</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="X4" t="n">
-        <v>451.8157392694129</v>
+        <v>1808.639845452713</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.7036780860563</v>
+        <v>1808.639845452713</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.065471781379</v>
+        <v>1595.909005810937</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.889970284309</v>
+        <v>1202.733504313868</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>817.2923755305355</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150839</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.868375788301</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>2118.171316109573</v>
+        <v>1595.909005810937</v>
       </c>
       <c r="V5" t="n">
-        <v>1776.064506813091</v>
+        <v>1595.909005810937</v>
       </c>
       <c r="W5" t="n">
-        <v>1405.065471781379</v>
+        <v>1595.909005810937</v>
       </c>
       <c r="X5" t="n">
-        <v>1405.065471781379</v>
+        <v>1595.909005810937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.065471781379</v>
+        <v>1595.909005810937</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>766.2559293026752</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>615.6016988627674</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>485.5127314842478</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>349.0662405951355</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>224.6344344782673</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144824</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653883</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1516.790804184831</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1286.673558318118</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1097.366480668129</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>918.0522637436366</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661.6122798674851</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="C7" t="n">
-        <v>491.4071619334743</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="D7" t="n">
-        <v>335.774048835989</v>
+        <v>584.501072382955</v>
       </c>
       <c r="E7" t="n">
-        <v>180.2152366951915</v>
+        <v>584.501072382955</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475502</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X7" t="n">
-        <v>661.6122798674851</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.6122798674851</v>
+        <v>740.1341854804402</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.3518713258459</v>
+        <v>462.464857499824</v>
       </c>
       <c r="C8" t="n">
-        <v>210.3518713258459</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>210.3518713258459</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>210.3518713258459</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
         <v>56.43532157313638</v>
@@ -4808,19 +4808,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1867.466502377325</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2215.653994508847</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>1396.789931183585</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.337326116642</v>
+        <v>1215.182707478992</v>
       </c>
       <c r="Y8" t="n">
-        <v>610.8466170372428</v>
+        <v>862.9596032112208</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.2222929964795</v>
+        <v>854.2900019614187</v>
       </c>
       <c r="C10" t="n">
-        <v>235.0171750624687</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D10" t="n">
-        <v>235.0171750624687</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E10" t="n">
-        <v>235.0171750624687</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.5106339047977</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>824.5106339047977</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>824.5106339047977</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>590.4303116877808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.4303116877808</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1702.435468430417</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.056242079542</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442403</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.313225118575</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527721</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654567</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5051,7 +5051,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.786232284372</v>
+        <v>2690.627098949699</v>
       </c>
       <c r="X11" t="n">
-        <v>2027.129902363622</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y11" t="n">
-        <v>1702.435468430417</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.3256286689348</v>
+        <v>532.9840595345466</v>
       </c>
       <c r="C13" t="n">
-        <v>431.9167858811178</v>
+        <v>434.5752167467297</v>
       </c>
       <c r="D13" t="n">
-        <v>431.9167858811178</v>
+        <v>350.7383787954382</v>
       </c>
       <c r="E13" t="n">
-        <v>348.1542488865143</v>
+        <v>350.7383787954382</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>265.208719154605</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>168.7509404002444</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>85.06866450793245</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245447</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915628</v>
+        <v>1171.529763110269</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689348</v>
+        <v>959.99563618764</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689348</v>
+        <v>797.7115891168169</v>
       </c>
       <c r="Y13" t="n">
-        <v>530.3256286689348</v>
+        <v>646.3958030796541</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131008</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937467</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699184</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2954.252057911387</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="W14" t="n">
-        <v>2655.049298025869</v>
+        <v>2751.985177299521</v>
       </c>
       <c r="X14" t="n">
-        <v>2337.39296810512</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.698534171914</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.25837199077</v>
+        <v>571.4129340497498</v>
       </c>
       <c r="C16" t="n">
-        <v>472.8495292029531</v>
+        <v>473.0040912619327</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>389.1672533106413</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,10 +5440,10 @@
         <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
         <v>999.626924813816</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U16" t="n">
-        <v>988.147539845774</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>988.147539845774</v>
+        <v>1058.642851588309</v>
       </c>
       <c r="W16" t="n">
-        <v>988.147539845774</v>
+        <v>847.1087246656803</v>
       </c>
       <c r="X16" t="n">
-        <v>825.8634927749509</v>
+        <v>684.8246775948572</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.6701155358774</v>
+        <v>684.8246775948572</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229802</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222399</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960397</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343037</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,25 +6011,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K25" t="n">
         <v>243.2367958390485</v>
@@ -6154,43 +6154,43 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511124</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>303.7986541368141</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>755.8323718938492</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1789.768608066744</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1789.768608066744</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225735</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904109</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,16 +6467,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3427.582880238551</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1676.653625847017</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192009</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1765.220722740011</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2293.032006377473</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805547</v>
+        <v>395.3961945636321</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458888</v>
+        <v>693.339893476879</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377098</v>
+        <v>982.3291861103357</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,19 +7336,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
         <v>1740.468202408463</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,13 +7570,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381766</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>575.4067826843245</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,19 +8061,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>89.07681405485295</v>
+        <v>458.3732307488511</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258623</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376819</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562876</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>572.6307885465557</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,10 +8456,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>603.2495781888792</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>296.0083050530727</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,13 +8541,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,19 +9009,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,22 +9720,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>424.3297954396435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>577.0069902189987</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128003</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,16 +10194,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210919</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939645</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10595,7 +10595,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
@@ -10665,16 +10665,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
         <v>92.68755888888889</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>86.14670669190059</v>
+        <v>35.2220229145921</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>40.52341588861687</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>37.96512727878235</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.09108713718859</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>278.0834103559328</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>132.3219873732179</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.02118471010812</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>966630.2454597187</v>
+        <v>966329.4716528385</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>966630.2454597187</v>
+        <v>966329.4716528385</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857507.1171414796</v>
+        <v>857507.1171414793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857507.1171414794</v>
+        <v>857507.1171414793</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>968664.8368869473</v>
+        <v>968664.8368869474</v>
       </c>
     </row>
     <row r="9">
@@ -26314,7 +26314,7 @@
         <v>306564.7027587067</v>
       </c>
       <c r="C2" t="n">
-        <v>306564.7027587065</v>
+        <v>306564.7027587066</v>
       </c>
       <c r="D2" t="n">
         <v>306564.7027587067</v>
@@ -26323,34 +26323,34 @@
         <v>270910.3398214811</v>
       </c>
       <c r="F2" t="n">
-        <v>270910.3398214811</v>
+        <v>270910.3398214812</v>
       </c>
       <c r="G2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="H2" t="n">
         <v>306564.7027587063</v>
       </c>
       <c r="I2" t="n">
+        <v>306564.7027587064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="K2" t="n">
+        <v>306564.7027587065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>306564.7027587065</v>
+      </c>
+      <c r="M2" t="n">
         <v>306564.7027587063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>306564.7027587065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>306564.7027587067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>306564.7027587066</v>
-      </c>
-      <c r="M2" t="n">
-        <v>306564.7027587064</v>
       </c>
       <c r="N2" t="n">
         <v>306564.7027587063</v>
       </c>
       <c r="O2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="P2" t="n">
         <v>306564.7027587064</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728538</v>
+        <v>62456.24177539685</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.6940427711</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.7885158943</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.7885158943</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120400.3514624016</v>
+        <v>-116951.2270687472</v>
       </c>
       <c r="C6" t="n">
-        <v>61804.59682945428</v>
+        <v>56907.42996530776</v>
       </c>
       <c r="D6" t="n">
-        <v>56365.05485363028</v>
+        <v>48628.76563023854</v>
       </c>
       <c r="E6" t="n">
-        <v>18612.97013170176</v>
+        <v>18403.23858501228</v>
       </c>
       <c r="F6" t="n">
-        <v>130735.5316057463</v>
+        <v>130525.8000590569</v>
       </c>
       <c r="G6" t="n">
-        <v>66221.90289902833</v>
+        <v>66221.90289902821</v>
       </c>
       <c r="H6" t="n">
-        <v>113647.2284357102</v>
+        <v>113647.2284357101</v>
       </c>
       <c r="I6" t="n">
-        <v>113647.2284357102</v>
+        <v>113647.2284357103</v>
       </c>
       <c r="J6" t="n">
-        <v>-99394.68916157528</v>
+        <v>-92878.40400700169</v>
       </c>
       <c r="K6" t="n">
-        <v>107407.4600329276</v>
+        <v>107407.4600329274</v>
       </c>
       <c r="L6" t="n">
-        <v>52224.87109830647</v>
+        <v>48176.0338878339</v>
       </c>
       <c r="M6" t="n">
-        <v>71446.39897608734</v>
+        <v>70394.703964899</v>
       </c>
       <c r="N6" t="n">
         <v>113647.2284357102</v>
       </c>
       <c r="O6" t="n">
-        <v>85879.53439293901</v>
+        <v>85879.53439293924</v>
       </c>
       <c r="P6" t="n">
         <v>113647.2284357103</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.7096175534639</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660672</v>
+        <v>78.07030221924606</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346387</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.7096175534639</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>189.1548727029009</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>94.12323655089983</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29.38908939791789</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270138</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>59.59263501245783</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>24.04094380275529</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>373.1252941195389</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>197.1496651778512</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>73.86716758775727</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>20.40029391172462</v>
+        <v>100.5180755399282</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,7 +27862,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>260.3481098301395</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>43.82492876351176</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>159.5775386896027</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668685</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773319</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>28.0125002648513</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.65052755599569</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29317,10 +29317,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29539,19 +29539,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>30.27223765901266</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.49509683159999</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738833467</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045598</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8683420224723</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,11 +30408,11 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>5.636002634529177</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30642,10 +30642,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.83216285893928</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>426.2882913465404</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>3.704701200686284</v>
+        <v>373.0011178946845</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953706</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135855</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069756</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>487.258675692389</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,10 +35176,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>450.0014084583875</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>151.5096066346805</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,13 +35261,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634527774</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>338.9576825854768</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028095</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>232.7614092820847</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696868</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934856</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220298</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>595.0111574826915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949224</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.761933262476</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>291.9083763974311</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437664</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37704,10 +37704,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873211</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462365</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
